--- a/_dane/dane.xlsx
+++ b/_dane/dane.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Gotowe</t>
   </si>
@@ -43,19 +43,49 @@
     <t xml:space="preserve">Dlanas</t>
   </si>
   <si>
+    <t xml:space="preserve">tak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dzis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testowe zlecenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasze</t>
+  </si>
+  <si>
     <t xml:space="preserve">nie</t>
   </si>
   <si>
-    <t xml:space="preserve">Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dzis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testowe zlecenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasze</t>
+    <t xml:space="preserve">34172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">872389173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fajny fest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkk</t>
   </si>
 </sst>
 </file>
@@ -130,8 +160,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,15 +190,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -187,27 +221,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>6871321</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -215,8 +295,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/_dane/dane.xlsx
+++ b/_dane/dane.xlsx
@@ -473,35 +473,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tak</t>
+          <t>nie</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>89238213</t>
+          <t>696273167</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sasug</t>
+          <t>Samugn</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dzis</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>opis zleceniea</t>
+          <t xml:space="preserve">opsi	</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasze pogu	</t>
+          <t>nas</t>
         </is>
       </c>
     </row>
@@ -512,29 +512,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34172</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Note2</t>
+          <t>ddd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>opis</t>
+          <t xml:space="preserve">oooo	</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>dlans</t>
+          <t>nnnnn</t>
         </is>
       </c>
     </row>
@@ -545,29 +547,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>872389173</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>678 098</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Iphone</t>
+          <t>To ejst mode</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fajny fest</t>
+          <t>dasddasdjkksdfjsdahfaskfslkfshdjflaflsf	sdkjf</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>kkk</t>
+          <t>ndfmnfnlkjlkjldsjklskjldsfljkdsfljkdfljk</t>
         </is>
       </c>
     </row>

--- a/_dane/dane.xlsx
+++ b/_dane/dane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nie</t>
+          <t>tak</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -543,7 +543,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nie</t>
+          <t>tak</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -574,6 +574,56 @@
           <t>ndfmnfnlkjlkjldsjklskjldsfljkdsfljkdfljk</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16/11/2023</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nie</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asdada</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16/11/2023</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_dane/dane.xlsx
+++ b/_dane/dane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>678 098</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ddd</t>
+          <t>To ejst mode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,49 +531,41 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">oooo	</t>
+          <t>dasddasdjkksdfjsdahfaskfslkfshdjflaflsf	sdkjf</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nnnnn</t>
+          <t>ndfmnfnlkjlkjldsjklskjldsfljkdsfljkdfljk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tak</t>
+          <t>nie</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>678 098</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>To ejst mode</t>
-        </is>
-      </c>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>dasddasdjkksdfjsdahfaskfslkfshdjflaflsf	sdkjf</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ndfmnfnlkjlkjldsjklskjldsfljkdsfljkdfljk</t>
-        </is>
-      </c>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -582,11 +574,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dddd</t>
+          <t>asdada</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -595,35 +587,8 @@
           <t>16/11/2023</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>nie</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>asdada</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16/11/2023</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_dane/dane.xlsx
+++ b/_dane/dane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,41 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tak</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>696273167</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Redmi 10C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20/11/2023</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppis zlecenia nie zle	</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To dla nas </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
